--- a/src/test/resources/test/test.xlsx
+++ b/src/test/resources/test/test.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A59820-768F-4F10-88C2-AEF66E21FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68D4699-1A3C-435B-B0BD-868445CF0874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="account" sheetId="1" r:id="rId1"/>
+    <sheet name="user_account" sheetId="1" r:id="rId1"/>
     <sheet name="app_user" sheetId="2" r:id="rId2"/>
+    <sheet name="author" sheetId="4" r:id="rId3"/>
+    <sheet name="genre" sheetId="5" r:id="rId4"/>
+    <sheet name="books" sheetId="3" r:id="rId5"/>
+    <sheet name="admin" sheetId="6" r:id="rId6"/>
+    <sheet name="admin_account" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -101,13 +106,115 @@
   </si>
   <si>
     <t>9a no trang long</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>birth_day</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>bio 1</t>
+  </si>
+  <si>
+    <t>Suzanne Collins</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Sir Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>E.B. White</t>
+  </si>
+  <si>
+    <t>Frank Herbert</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>Scifi</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>genre_id</t>
+  </si>
+  <si>
+    <t>author_id</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>last_modified_date</t>
+  </si>
+  <si>
+    <t>images/bookcover/default_book_cover.jpg</t>
+  </si>
+  <si>
+    <t>title 1</t>
+  </si>
+  <si>
+    <t>title 2</t>
+  </si>
+  <si>
+    <t>title 3</t>
+  </si>
+  <si>
+    <t>title 4</t>
+  </si>
+  <si>
+    <t>title 5</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>admin@example.com</t>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +238,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,11 +266,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,6 +618,7 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
@@ -512,7 +627,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -590,7 +705,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -605,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755D4420-D378-4B4D-ABC0-5BCA6A7DCE5E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,4 +785,492 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CDEC77-AF12-4E7C-9C32-B19F41D141D2}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
+        <v>23954</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22868</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20231</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>32335</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7526</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F2D1D9-0E52-471F-BC62-D76F03F138A2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A5CE45-C140-4A91-B8EE-8145B6EB9C4F}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>37363</v>
+      </c>
+      <c r="J2" s="3">
+        <v>37364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44184</v>
+      </c>
+      <c r="J3" s="3">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45292</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45292</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45320</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2536C13-1E4B-4A70-96FC-BAB97621CEE2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D424E85-1BA1-4BCF-A8AE-6CF631C5DD89}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>707854816</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7047814B-7763-4720-B8B2-E94D6B5004DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>